--- a/Reporting/Resources/StrategyReportTemplate.xlsx
+++ b/Reporting/Resources/StrategyReportTemplate.xlsx
@@ -11,8 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Params" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Equity" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trades" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stats" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="rng_params">Params!$A$2:$B$20</definedName>
@@ -26,8 +27,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="0.########"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -127,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -164,6 +168,15 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -488,124 +501,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Equity Curve (from Equity sheet)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Equity'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Equity'!$A$2:$A$10001</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Equity'!$B$2:$B$10001</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Equity</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
               <a:t>Monthly Returns</a:t>
             </a:r>
           </a:p>
@@ -760,33 +655,6 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8640000" cy="4320000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
       <col>5</col>
       <colOff>0</colOff>
       <row>2</row>
@@ -845,35 +713,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TradesTable" displayName="TradesTable" ref="A1:H2" headerRowCount="1">
-  <autoFilter ref="A1:H2"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="EntryTime"/>
-    <tableColumn id="2" name="ExitTime"/>
-    <tableColumn id="3" name="Side"/>
-    <tableColumn id="4" name="Qty"/>
-    <tableColumn id="5" name="EntryPrice"/>
-    <tableColumn id="6" name="ExitPrice"/>
-    <tableColumn id="7" name="PnL"/>
-    <tableColumn id="8" name="PnL%"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="OrdersTable" displayName="OrdersTable" ref="A1:I2" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TradesTable" displayName="TradesTable" ref="A1:I2" headerRowCount="1">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
+    <tableColumn id="1" name="TradeId"/>
+    <tableColumn id="2" name="Time"/>
+    <tableColumn id="3" name="Security"/>
+    <tableColumn id="4" name="Side"/>
+    <tableColumn id="5" name="Volume"/>
+    <tableColumn id="6" name="Price"/>
+    <tableColumn id="7" name="PnL"/>
+    <tableColumn id="8" name="Slippage"/>
+    <tableColumn id="9" name="TotalPnL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="OrdersTable" displayName="OrdersTable" ref="A1:J2" headerRowCount="1">
+  <autoFilter ref="A1:J2"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="OrderId"/>
     <tableColumn id="2" name="TransactionId"/>
-    <tableColumn id="3" name="Side"/>
-    <tableColumn id="4" name="Time"/>
-    <tableColumn id="5" name="Price"/>
-    <tableColumn id="6" name="State"/>
-    <tableColumn id="7" name="Balance"/>
-    <tableColumn id="8" name="Volume"/>
-    <tableColumn id="9" name="Type"/>
+    <tableColumn id="3" name="Security"/>
+    <tableColumn id="4" name="Side"/>
+    <tableColumn id="5" name="Time"/>
+    <tableColumn id="6" name="Price"/>
+    <tableColumn id="7" name="State"/>
+    <tableColumn id="8" name="Balance"/>
+    <tableColumn id="9" name="Volume"/>
+    <tableColumn id="10" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="PositionsTable" displayName="PositionsTable" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Security"/>
+    <tableColumn id="2" name="Portfolio"/>
+    <tableColumn id="3" name="OpenTime"/>
+    <tableColumn id="4" name="OpenPrice"/>
+    <tableColumn id="5" name="CloseTime"/>
+    <tableColumn id="6" name="ClosePrice"/>
+    <tableColumn id="7" name="MaxPosition"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,6 +1362,8 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="22" t="n"/>
+      <c r="B2" s="17" t="n"/>
       <c r="C2" s="12" t="n"/>
     </row>
   </sheetData>
@@ -1492,9 +1380,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1514,14 +1401,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
@@ -1529,32 +1416,32 @@
     <row r="1" ht="22" customHeight="1">
       <c r="A1" s="11" t="inlineStr">
         <is>
-          <t>EntryTime</t>
+          <t>TradeId</t>
         </is>
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>ExitTime</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
           <t>Side</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>EntryPrice</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>ExitPrice</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="G1" s="11" t="inlineStr">
@@ -1564,7 +1451,7 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>PnL%</t>
+          <t>Slippage</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
@@ -1579,22 +1466,19 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="18" t="n"/>
+      <c r="B2" s="23" t="n"/>
+      <c r="C2" s="20" t="n"/>
+      <c r="D2" s="20" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="17" t="n"/>
       <c r="G2" s="13" t="n"/>
-      <c r="H2" s="12" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="13" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G10001">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1606,7 +1490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10001">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1625,6 +1509,207 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>OrderId</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>TransactionId</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>Side</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="n"/>
+      <c r="B2" s="18" t="n"/>
+      <c r="C2" s="20" t="n"/>
+      <c r="D2" s="20" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="20" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="20" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H10001">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>Portfolio</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>OpenTime</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>OpenPrice</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>CloseTime</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>ClosePrice</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>MaxPosition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="n"/>
+      <c r="B2" s="20" t="n"/>
+      <c r="C2" s="23" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="24" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G10001">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,97 +1785,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>OrderId</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>TransactionId</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>Side</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:G10001">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>